--- a/libmasys/excel/Empresariales.xlsx
+++ b/libmasys/excel/Empresariales.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="240">
   <si>
     <t>Titulo</t>
   </si>
@@ -139,7 +139,7 @@
     <t>Enrique Rubio López</t>
   </si>
   <si>
-    <t>Universidad de Granada</t>
+    <t>UGR</t>
   </si>
   <si>
     <t>EM E 1</t>
@@ -337,6 +337,9 @@
     <t xml:space="preserve">Calidad total en la gestión de los serivios financieros </t>
   </si>
   <si>
+    <t>Francisco Javier Lloréns Montes</t>
+  </si>
+  <si>
     <t>EM E 23</t>
   </si>
   <si>
@@ -577,7 +580,7 @@
     <t>EM E 48</t>
   </si>
   <si>
-    <t>El ejecutivo moderno</t>
+    <t>El ejecutivo moderno: dirección comercial</t>
   </si>
   <si>
     <t>Juán Llonch Andreu</t>
@@ -620,6 +623,114 @@
   </si>
   <si>
     <t>EM E 52</t>
+  </si>
+  <si>
+    <t>Mundalización económica y crisis político jurídica</t>
+  </si>
+  <si>
+    <t>Nicolás López Calera</t>
+  </si>
+  <si>
+    <t>EM E 53</t>
+  </si>
+  <si>
+    <t>Los obstáculos técnicos al comercio en la Comunidad económica europea</t>
+  </si>
+  <si>
+    <t>Manuel López Escudero</t>
+  </si>
+  <si>
+    <t>EM E 54</t>
+  </si>
+  <si>
+    <t>La parte maldita</t>
+  </si>
+  <si>
+    <t>Georges Bataille</t>
+  </si>
+  <si>
+    <t>Icaria</t>
+  </si>
+  <si>
+    <t>EM E 55</t>
+  </si>
+  <si>
+    <t>Análisis contable del equilibrio financiero de la empresa</t>
+  </si>
+  <si>
+    <t>Lázaro Rodríguez Ariza</t>
+  </si>
+  <si>
+    <t>EM E 56</t>
+  </si>
+  <si>
+    <t>Cómo mentir con estadisticas</t>
+  </si>
+  <si>
+    <t>Darriel Huff</t>
+  </si>
+  <si>
+    <t>Sagitario</t>
+  </si>
+  <si>
+    <t>EM E 57</t>
+  </si>
+  <si>
+    <t>Las formas ocultas de la propaganda</t>
+  </si>
+  <si>
+    <t>V. Packard</t>
+  </si>
+  <si>
+    <t>EM E 58</t>
+  </si>
+  <si>
+    <t>Introducción a la historia económica</t>
+  </si>
+  <si>
+    <t>G. D. H. Cole</t>
+  </si>
+  <si>
+    <t>Fondo de cultura económica</t>
+  </si>
+  <si>
+    <t>EM E 59</t>
+  </si>
+  <si>
+    <t>El ejecutivo moderno: dirección financiera</t>
+  </si>
+  <si>
+    <t>Máximo Borrel Vidal</t>
+  </si>
+  <si>
+    <t>EM E 60</t>
+  </si>
+  <si>
+    <t>El ejecutivo moderno: Dirección general</t>
+  </si>
+  <si>
+    <t>Joaquín Bou Gascons</t>
+  </si>
+  <si>
+    <t>EM E 61</t>
+  </si>
+  <si>
+    <t>El ejecutivo moderno: dirección producción</t>
+  </si>
+  <si>
+    <t>Francisco Javier Mercader del Campo</t>
+  </si>
+  <si>
+    <t>EM E 62</t>
+  </si>
+  <si>
+    <t>La crisis de las cajas rurales españolas</t>
+  </si>
+  <si>
+    <t>Antonio Martín Mesa</t>
+  </si>
+  <si>
+    <t>EM E 63</t>
   </si>
 </sst>
 </file>
@@ -1635,7 +1746,9 @@
       <c r="A85" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B85" s="2"/>
+      <c r="B85" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="D85" s="2">
         <v>1998.0</v>
       </c>
@@ -1646,15 +1759,15 @@
         <v>8</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D86" s="2">
         <v>2003.0</v>
@@ -1666,15 +1779,15 @@
         <v>8</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D87" s="2">
         <v>2003.0</v>
@@ -1686,15 +1799,15 @@
         <v>8</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D88" s="2">
         <v>2002.0</v>
@@ -1706,15 +1819,15 @@
         <v>8</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D89" s="2">
         <v>2002.0</v>
@@ -1726,15 +1839,15 @@
         <v>8</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D90" s="2">
         <v>2002.0</v>
@@ -1746,15 +1859,15 @@
         <v>8</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D91" s="2">
         <v>2001.0</v>
@@ -1766,15 +1879,15 @@
         <v>8</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D92" s="2">
         <v>2002.0</v>
@@ -1786,15 +1899,15 @@
         <v>8</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D93" s="2">
         <v>2002.0</v>
@@ -1806,15 +1919,15 @@
         <v>8</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D94" s="2">
         <v>2001.0</v>
@@ -1826,15 +1939,15 @@
         <v>8</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D95" s="2">
         <v>2001.0</v>
@@ -1846,15 +1959,15 @@
         <v>8</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D96" s="2">
         <v>2002.0</v>
@@ -1866,15 +1979,15 @@
         <v>8</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D97" s="2">
         <v>2003.0</v>
@@ -1886,15 +1999,15 @@
         <v>8</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D98" s="2">
         <v>2002.0</v>
@@ -1906,15 +2019,15 @@
         <v>8</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D99" s="2">
         <v>2001.0</v>
@@ -1926,15 +2039,15 @@
         <v>8</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D100" s="2">
         <v>1990.0</v>
@@ -1946,15 +2059,15 @@
         <v>8</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D101" s="2">
         <v>1993.0</v>
@@ -1966,15 +2079,15 @@
         <v>8</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D102" s="2">
         <v>1997.0</v>
@@ -1986,15 +2099,15 @@
         <v>8</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D103" s="2">
         <v>1995.0</v>
@@ -2006,15 +2119,15 @@
         <v>8</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D104" s="2">
         <v>1993.0</v>
@@ -2026,35 +2139,35 @@
         <v>8</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D105" s="2">
         <v>1987.0</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D106" s="2">
         <v>1988.0</v>
@@ -2066,15 +2179,15 @@
         <v>8</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D107" s="2">
         <v>1989.0</v>
@@ -2086,169 +2199,368 @@
         <v>8</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D108" s="2">
         <v>1962.0</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D109" s="2">
         <v>1964.0</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D110" s="2">
         <v>1963.0</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D111" s="2">
         <v>1985.0</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D112" s="2">
         <v>2008.0</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D113" s="2">
         <v>2008.0</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D114" s="2">
         <v>2006.0</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="115">
-      <c r="H115" s="2"/>
+      <c r="A115" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D115" s="2">
+        <v>1961.0</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="116">
-      <c r="H116" s="2"/>
+      <c r="A116" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D116" s="2">
+        <v>1991.0</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="117">
-      <c r="H117" s="2"/>
+      <c r="A117" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D117" s="2">
+        <v>1987.0</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="118">
-      <c r="H118" s="2"/>
+      <c r="A118" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D118" s="2">
+        <v>1999.0</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="119">
-      <c r="H119" s="2"/>
+      <c r="A119" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D119" s="2">
+        <v>1965.0</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="120">
-      <c r="H120" s="2"/>
+      <c r="A120" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D120" s="2">
+        <v>1959.0</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="121">
-      <c r="H121" s="2"/>
+      <c r="A121" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D121" s="2">
+        <v>1963.0</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D122" s="2">
+        <v>1985.0</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D123" s="2">
+        <v>1985.0</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D124" s="2">
+        <v>1985.0</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D125" s="2">
+        <v>1988.0</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>239</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
